--- a/Congklak GA(1).xlsx
+++ b/Congklak GA(1).xlsx
@@ -1172,8 +1172,8 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="2" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="15" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="11.57"/>
@@ -1343,27 +1343,27 @@
       </c>
       <c r="O14" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.738730419170205</v>
+        <v>0.0821308863657765</v>
       </c>
       <c r="P14" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.691514499958417</v>
+        <v>0.869749453977389</v>
       </c>
       <c r="Q14" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.614776583491014</v>
+        <v>0.690609863325538</v>
       </c>
       <c r="R14" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.511301418026787</v>
+        <v>0.517878655813065</v>
       </c>
       <c r="S14" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0852011110577148</v>
+        <v>0.0186934629461071</v>
       </c>
       <c r="T14" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.277502200565461</v>
+        <v>0.549673445559803</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1372,27 +1372,27 @@
       </c>
       <c r="O15" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.599985229460924</v>
+        <v>0.952132197047966</v>
       </c>
       <c r="P15" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.845222929997212</v>
+        <v>0.15231463577433</v>
       </c>
       <c r="Q15" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.704840276992056</v>
+        <v>0.984770741758677</v>
       </c>
       <c r="R15" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.726980753311281</v>
+        <v>0.459147540431692</v>
       </c>
       <c r="S15" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0928776531511152</v>
+        <v>0.334918987819756</v>
       </c>
       <c r="T15" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0927646992213407</v>
+        <v>0.193013021588542</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1404,27 +1404,27 @@
       </c>
       <c r="O16" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.12668740709755</v>
+        <v>0.646817021683667</v>
       </c>
       <c r="P16" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.239357578720651</v>
+        <v>0.603695993282666</v>
       </c>
       <c r="Q16" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0531135045167257</v>
+        <v>0.651409560679295</v>
       </c>
       <c r="R16" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.556292889552598</v>
+        <v>0.9596562688905</v>
       </c>
       <c r="S16" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.918638718312643</v>
+        <v>0.766983201168036</v>
       </c>
       <c r="T16" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.651878668945975</v>
+        <v>0.252071863992056</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1436,27 +1436,27 @@
       </c>
       <c r="O17" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.824071768267918</v>
+        <v>0.841155962905896</v>
       </c>
       <c r="P17" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.322699246905317</v>
+        <v>0.147627365500496</v>
       </c>
       <c r="Q17" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0398655040927346</v>
+        <v>0.269014500443899</v>
       </c>
       <c r="R17" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.172243977326113</v>
+        <v>0.846569132849391</v>
       </c>
       <c r="S17" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.344570025989776</v>
+        <v>0.31041943996189</v>
       </c>
       <c r="T17" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0819986761413628</v>
+        <v>0.623154097179488</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1468,27 +1468,27 @@
       </c>
       <c r="O18" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.549041141409018</v>
+        <v>0.959849105029298</v>
       </c>
       <c r="P18" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.345711489951443</v>
+        <v>0.892325648154527</v>
       </c>
       <c r="Q18" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.760007098215938</v>
+        <v>0.0583594530068166</v>
       </c>
       <c r="R18" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.162996096662893</v>
+        <v>0.0159572929654091</v>
       </c>
       <c r="S18" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.283562081428287</v>
+        <v>0.0138892572756342</v>
       </c>
       <c r="T18" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.408727445510281</v>
+        <v>0.37894446729622</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1497,27 +1497,27 @@
       </c>
       <c r="O19" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.628034131528825</v>
+        <v>0.943344123595968</v>
       </c>
       <c r="P19" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.368655635302721</v>
+        <v>0.820581663287659</v>
       </c>
       <c r="Q19" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.56920960641824</v>
+        <v>0.550690189134773</v>
       </c>
       <c r="R19" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.170098016409544</v>
+        <v>0.104278983507427</v>
       </c>
       <c r="S19" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.850976004195035</v>
+        <v>0.485646142374534</v>
       </c>
       <c r="T19" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.789194602541753</v>
+        <v>0.605038674369396</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1529,27 +1529,27 @@
       </c>
       <c r="O20" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.435719737929644</v>
+        <v>0.783107780843312</v>
       </c>
       <c r="P20" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.296812859430974</v>
+        <v>0.181830929464743</v>
       </c>
       <c r="Q20" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0434985546271829</v>
+        <v>0.052504562635225</v>
       </c>
       <c r="R20" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.45157988697089</v>
+        <v>0.248792129224869</v>
       </c>
       <c r="S20" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.864064227475397</v>
+        <v>0.484862105306987</v>
       </c>
       <c r="T20" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.820524555048499</v>
+        <v>0.318412671222628</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1561,27 +1561,27 @@
       </c>
       <c r="O21" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.894935484735913</v>
+        <v>0.299990506398285</v>
       </c>
       <c r="P21" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.66468867663276</v>
+        <v>0.642781813207309</v>
       </c>
       <c r="Q21" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.860911631031875</v>
+        <v>0.914294794214465</v>
       </c>
       <c r="R21" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.814320805252843</v>
+        <v>0.151585832981661</v>
       </c>
       <c r="S21" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.303193662574051</v>
+        <v>0.166838796879721</v>
       </c>
       <c r="T21" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.757341593946067</v>
+        <v>0.0741471739932029</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1593,27 +1593,27 @@
       </c>
       <c r="O22" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.376448400892465</v>
+        <v>0.902554858150339</v>
       </c>
       <c r="P22" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.559511293148716</v>
+        <v>0.150523132941645</v>
       </c>
       <c r="Q22" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.078180318930399</v>
+        <v>0.612406922448604</v>
       </c>
       <c r="R22" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0104103256334718</v>
+        <v>0.499798171793595</v>
       </c>
       <c r="S22" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.550887582726022</v>
+        <v>0.526153891123871</v>
       </c>
       <c r="T22" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.89595036923432</v>
+        <v>0.397008836494451</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1625,27 +1625,27 @@
       </c>
       <c r="O23" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0407781381330569</v>
+        <v>0.24549866735393</v>
       </c>
       <c r="P23" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.685438227574639</v>
+        <v>0.235919112878346</v>
       </c>
       <c r="Q23" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.122306872099555</v>
+        <v>0.286426501795974</v>
       </c>
       <c r="R23" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.218051787822574</v>
+        <v>0.452026057489758</v>
       </c>
       <c r="S23" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.659199081317935</v>
+        <v>0.248193333694803</v>
       </c>
       <c r="T23" s="5" t="n">
         <f aca="true">RAND()</f>
-        <v>0.781162062658432</v>
+        <v>0.201697954041364</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1686,35 +1686,35 @@
       </c>
       <c r="O25" s="0" t="n">
         <f aca="true">RAND() *100</f>
-        <v>94.9823602461981</v>
+        <v>82.9197176788857</v>
       </c>
       <c r="R25" s="0" t="n">
         <f aca="true">RAND() * 100</f>
-        <v>23.4017436654852</v>
+        <v>5.14400584911417</v>
       </c>
       <c r="AC25" s="0" t="n">
         <f aca="true">RAND() * 100</f>
-        <v>10.5258703103539</v>
+        <v>43.4126309636226</v>
       </c>
       <c r="AD25" s="0" t="n">
         <f aca="true">RAND() * 100</f>
-        <v>46.7555803341129</v>
+        <v>11.5486065384192</v>
       </c>
       <c r="AE25" s="0" t="n">
         <f aca="true">RAND() * 100</f>
-        <v>3.18867076596363</v>
+        <v>81.5148781746865</v>
       </c>
       <c r="AF25" s="0" t="n">
         <f aca="true">RAND() * 100</f>
-        <v>50.6361823571267</v>
+        <v>66.86807996689</v>
       </c>
       <c r="AG25" s="0" t="n">
         <f aca="true">RAND() * 100</f>
-        <v>83.0616509715844</v>
+        <v>63.9188503753535</v>
       </c>
       <c r="AH25" s="0" t="n">
         <f aca="true">RAND() * 100</f>
-        <v>62.9426199241662</v>
+        <v>26.7259708884424</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="O26" s="0" t="n">
         <f aca="true">RAND() *100</f>
-        <v>25.6425426369854</v>
+        <v>28.298194209159</v>
       </c>
       <c r="AB26" s="0" t="s">
         <v>58</v>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="AD26" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.38367676155444</v>
+        <v>0.806029286336926</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11148,8 +11148,8 @@
   </sheetPr>
   <dimension ref="A1:BN139"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AF7" activeCellId="0" sqref="AF7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M7" activeCellId="0" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
